--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS134_VerifTamPeserta.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS134_VerifTamPeserta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E8D53E-9BDB-4A68-8A52-5EE816A465FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDAAABE-3F35-42DC-900E-FBBBD859C6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKKPS134-001" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>RUN</t>
   </si>
@@ -123,25 +123,28 @@
   </si>
   <si>
     <t>Diverifikasi</t>
-  </si>
-  <si>
-    <t>M13220800000030</t>
   </si>
   <si>
     <t>Username : 31816;
 Password : bni1234;
 Role : 09 - Penyelia Settlement;
-No. Register : M13220800000030;
-Status Verifikasi : 0 : Kembalikan ke Register;
-Keterangan Verifikasi : KEP.TRX.436 kembalikan ke Register</t>
+No. Register : M13220800000027;
+Status Verifikasi : 1 : Setuju;
+Keterangan Verifikasi : KEP.TRX.436 Setuju</t>
+  </si>
+  <si>
+    <t>M13220800000027</t>
+  </si>
+  <si>
+    <t>M13220800000028</t>
   </si>
   <si>
     <t>Username : 31816;
 Password : bni1234;
 Role : 09 - Penyelia Settlement;
-No. Register : M13220800000030;
-Status Verifikasi : 1 : Setuju;
-Keterangan Verifikasi : KEP.TRX.436 Setuju</t>
+No. Register : M13220800000028;
+Status Verifikasi : 0 : Kembalikan ke Register;
+Keterangan Verifikasi : KEP.TRX.436 kembalikan ke Register</t>
   </si>
 </sst>
 </file>
@@ -533,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A75AAA4-F28F-45B6-8D73-FB1F2606A1FB}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -629,7 +632,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3">
         <v>31816</v>
@@ -653,7 +656,7 @@
         <v>19</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" s="4">
         <v>0</v>
@@ -689,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +788,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3">
         <v>31816</v>
@@ -809,7 +812,7 @@
         <v>19</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="4">
         <v>1</v>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS134_VerifTamPeserta.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS134_VerifTamPeserta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDAAABE-3F35-42DC-900E-FBBBD859C6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C398F98-79C8-4463-B67A-75F9198098C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,13 +136,13 @@
     <t>M13220800000027</t>
   </si>
   <si>
-    <t>M13220800000028</t>
+    <t>M13220800000040</t>
   </si>
   <si>
     <t>Username : 31816;
 Password : bni1234;
 Role : 09 - Penyelia Settlement;
-No. Register : M13220800000028;
+No. Register : M13220800000040;
 Status Verifikasi : 0 : Kembalikan ke Register;
 Keterangan Verifikasi : KEP.TRX.436 kembalikan ke Register</t>
   </si>
